--- a/PCB/Project Outputs for x-IMU3-SA-D3/BOM/Bill of Materials-x-IMU3-SA-D3.xlsx
+++ b/PCB/Project Outputs for x-IMU3-SA-D3/BOM/Bill of Materials-x-IMU3-SA-D3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-SA-D3\x-IMU3-SA-D3-PCB\Project Outputs for x-IMU3-SA-D3\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-SA-D3\PCB\Project Outputs for x-IMU3-SA-D3\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8741A353-9FF4-45B6-A5D8-712B271D0F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BCDA6A-F85C-441E-8038-F367E2457405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="6270" windowWidth="24150" windowHeight="15270" xr2:uid="{8E07E1F5-9B9E-4618-8CD0-2D217FC56E9C}"/>
+    <workbookView xWindow="-29930" yWindow="2240" windowWidth="26950" windowHeight="18890" xr2:uid="{06E78496-6DFD-467C-8C89-36FE947458C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-x-IMU3-SA-D3" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68353FE-0924-42C2-A5C5-8E15C29EE9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F091BAD2-8ACA-4523-BCEF-AAF812F4C544}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -585,6 +585,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>